--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -73,15 +73,15 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -91,42 +91,45 @@
     <t>great</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
     <t>cakes</t>
   </si>
   <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>husband</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>pie</t>
   </si>
   <si>
@@ -139,18 +142,18 @@
     <t>bread</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
@@ -160,34 +163,34 @@
     <t>easy</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>works</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>pan</t>
   </si>
   <si>
     <t>well</t>
@@ -196,31 +199,31 @@
     <t>recommend</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>little</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>really</t>
   </si>
   <si>
     <t>one</t>
@@ -593,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3720930232558139</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -680,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -712,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3333333333333333</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -730,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.967741935483871</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L4">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -754,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -762,13 +765,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8984375</v>
+        <v>0.9140625</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +791,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +817,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8637770897832817</v>
+        <v>0.8575851393188855</v>
       </c>
       <c r="L7">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M7">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +843,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -858,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -866,13 +869,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7727272727272727</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -884,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -892,13 +895,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7316017316017316</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -910,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -918,13 +921,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.7142857142857143</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L11">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="M11">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -936,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -944,13 +947,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.7050847457627119</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L12">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -962,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -970,13 +973,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6901408450704225</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -988,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1048,13 +1051,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6565008025682183</v>
+        <v>0.6492776886035313</v>
       </c>
       <c r="L16">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="M16">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1066,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1074,13 +1077,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6530612244897959</v>
+        <v>0.609375</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1092,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1100,13 +1103,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.609375</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1118,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1126,13 +1129,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6057142857142858</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1144,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1152,13 +1155,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5769230769230769</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="L20">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M20">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1170,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1178,13 +1181,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5735294117647058</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1204,13 +1207,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5571428571428572</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1222,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1230,13 +1233,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5538461538461539</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1248,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1256,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.543859649122807</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1274,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1282,13 +1285,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5416666666666666</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1300,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1334,13 +1337,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5263157894736842</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1352,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1360,13 +1363,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5238095238095238</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1378,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1386,13 +1389,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.5230769230769231</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1404,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1412,13 +1415,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.5128205128205128</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L30">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1430,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1438,13 +1441,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.5060240963855421</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1456,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1464,13 +1467,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.49</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L32">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1482,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1490,13 +1493,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.4320987654320987</v>
+        <v>0.46</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1508,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1516,13 +1519,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.427710843373494</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L34">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M34">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1534,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1542,13 +1545,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.4210526315789473</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1560,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1568,13 +1571,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.3759398496240601</v>
+        <v>0.3984962406015037</v>
       </c>
       <c r="L36">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M36">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1586,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1594,13 +1597,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.3696498054474708</v>
+        <v>0.3873873873873874</v>
       </c>
       <c r="L37">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="M37">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1612,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>162</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1620,13 +1623,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.3676470588235294</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L38">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="M38">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1638,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>258</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1646,13 +1649,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.326027397260274</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L39">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="M39">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1664,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>492</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1672,13 +1675,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.3243243243243243</v>
+        <v>0.3136986301369863</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1690,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>75</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1698,13 +1701,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.3082706766917293</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L41">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M41">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1716,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1750,13 +1753,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.2949640287769784</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L43">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M43">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1768,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1776,13 +1779,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.2781456953642384</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L44">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="M44">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1794,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>109</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1802,13 +1805,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.2561894510226049</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L45">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1820,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>691</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1828,13 +1831,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.2392344497607655</v>
+        <v>0.2454251883745963</v>
       </c>
       <c r="L46">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="M46">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1846,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>159</v>
+        <v>701</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1854,13 +1857,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.2281879194630873</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1872,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1880,13 +1883,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.201219512195122</v>
+        <v>0.223841059602649</v>
       </c>
       <c r="L48">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="M48">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1898,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>131</v>
+        <v>586</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1906,13 +1909,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1973509933774834</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L49">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="M49">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1924,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>606</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1932,13 +1935,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1777493606138107</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="L50">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="M50">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1950,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>643</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1958,25 +1961,25 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.1734417344173442</v>
+        <v>0.1918158567774936</v>
       </c>
       <c r="L51">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="M51">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="N51">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>305</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1984,25 +1987,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.1724137931034483</v>
+        <v>0.1648648648648649</v>
       </c>
       <c r="L52">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M52">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>264</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2010,25 +2013,25 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.1344827586206896</v>
+        <v>0.1527093596059113</v>
       </c>
       <c r="L53">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M53">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N53">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>251</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2036,13 +2039,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.1337719298245614</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="L54">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2054,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>395</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2062,13 +2065,13 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.1333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="L55">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="M55">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2080,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>234</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2088,13 +2091,13 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.1328413284132841</v>
+        <v>0.1192214111922141</v>
       </c>
       <c r="L56">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M56">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2106,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>235</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2114,13 +2117,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.125</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="L57">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M57">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2132,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2140,13 +2143,13 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.1241050119331742</v>
+        <v>0.1145584725536993</v>
       </c>
       <c r="L58">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M58">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2158,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2166,13 +2169,13 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.1192214111922141</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="L59">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M59">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2184,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>362</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2192,13 +2195,13 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.08469945355191257</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L60">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M60">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2210,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>335</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2218,13 +2221,13 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.07555970149253731</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L61">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="M61">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2236,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>991</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2244,25 +2247,25 @@
         <v>70</v>
       </c>
       <c r="K62">
-        <v>0.06456241032998565</v>
+        <v>0.07649253731343283</v>
       </c>
       <c r="L62">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="M62">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="N62">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>652</v>
+        <v>990</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2270,25 +2273,25 @@
         <v>71</v>
       </c>
       <c r="K63">
-        <v>0.05535055350553506</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L63">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M63">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>512</v>
+        <v>649</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2296,25 +2299,51 @@
         <v>72</v>
       </c>
       <c r="K64">
-        <v>0.04498269896193772</v>
+        <v>0.05719557195571956</v>
       </c>
       <c r="L64">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M64">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K65">
+        <v>0.04671280276816609</v>
+      </c>
+      <c r="L65">
+        <v>54</v>
+      </c>
+      <c r="M65">
+        <v>55</v>
+      </c>
+      <c r="N65">
         <v>0.98</v>
       </c>
-      <c r="O64">
+      <c r="O65">
         <v>0.02000000000000002</v>
       </c>
-      <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>1104</v>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
